--- a/src/main/java/testing/excel/hw3.xlsx
+++ b/src/main/java/testing/excel/hw3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freddyhe/Desktop/soltware_testing/src/main/java/testing/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freddyhe/Desktop/软测/soltware_testing-master/src/main/java/testing/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFA6E6D-83C9-6140-A494-A0AB4417A206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B749F197-D7DC-FB43-B61B-5BCCAA8FA6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="500" windowWidth="21020" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7540" yWindow="500" windowWidth="21020" windowHeight="16020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Numbers 工作表名称</t>
   </si>
@@ -43,14 +43,6 @@
   </si>
   <si>
     <t>题目6   一般边界值法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应折扣</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -354,6 +346,13 @@
   <si>
     <t>peripherals</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>peripherals</t>
   </si>
 </sst>
 </file>
@@ -456,7 +455,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,8 +480,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDC0BF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -635,43 +640,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="13"/>
@@ -709,19 +677,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="13"/>
@@ -734,13 +689,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -834,52 +869,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2059,15 +2088,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50" customHeight="1">
-      <c r="B3" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="B3" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="2:4" ht="65" customHeight="1">
       <c r="B4" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="19">
@@ -2094,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="17">
@@ -2107,10 +2136,10 @@
     <row r="12" spans="2:4" ht="17">
       <c r="B12" s="3"/>
       <c r="C12" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2130,11 +2159,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E1:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2145,19 +2174,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>50</v>
-      </c>
       <c r="E1" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" s="6"/>
     </row>
@@ -2168,13 +2197,13 @@
       <c r="B2" s="8">
         <v>21</v>
       </c>
-      <c r="C2" s="31">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="7">
         <v>22</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="D2" s="31">
+        <v>423</v>
+      </c>
+      <c r="E2" s="31"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="22.25" customHeight="1">
@@ -2184,13 +2213,13 @@
       <c r="B3" s="25">
         <v>19</v>
       </c>
-      <c r="C3" s="32">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="C3" s="24">
         <v>33</v>
       </c>
-      <c r="E3" s="38"/>
+      <c r="D3" s="32">
+        <v>500</v>
+      </c>
+      <c r="E3" s="32"/>
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="22.25" customHeight="1">
@@ -2200,13 +2229,13 @@
       <c r="B4" s="27">
         <v>12</v>
       </c>
-      <c r="C4" s="33">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D4" s="27">
+      <c r="C4" s="27">
         <v>12</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="D4" s="33">
+        <v>202.5</v>
+      </c>
+      <c r="E4" s="33"/>
       <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="22.25" customHeight="1">
@@ -2216,13 +2245,13 @@
       <c r="B5" s="26">
         <v>15</v>
       </c>
-      <c r="C5" s="34">
-        <v>0</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="C5" s="26">
         <v>29</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="D5" s="34">
+        <v>426</v>
+      </c>
+      <c r="E5" s="34"/>
       <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="23.75" customHeight="1">
@@ -2232,13 +2261,13 @@
       <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="34">
-        <v>0</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="C6" s="26">
         <v>5</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="D6" s="34">
+        <v>41.5</v>
+      </c>
+      <c r="E6" s="34"/>
       <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" ht="23.75" customHeight="1">
@@ -2248,13 +2277,13 @@
       <c r="B7" s="26">
         <v>4</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="26">
         <v>0</v>
       </c>
-      <c r="D7" s="26">
-        <v>0</v>
-      </c>
-      <c r="E7" s="40"/>
+      <c r="D7" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="34"/>
       <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" ht="22.25" customHeight="1">
@@ -2264,13 +2293,13 @@
       <c r="B8" s="26">
         <v>0</v>
       </c>
-      <c r="C8" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="D8" s="26">
+      <c r="C8" s="26">
         <v>0</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="D8" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="34"/>
       <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="22.25" customHeight="1">
@@ -2280,13 +2309,13 @@
       <c r="B9" s="26">
         <v>1</v>
       </c>
-      <c r="C9" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="D9" s="26">
+      <c r="C9" s="26">
         <v>0</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="D9" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="34"/>
       <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" ht="22.25" customHeight="1">
@@ -2296,13 +2325,13 @@
       <c r="B10" s="26">
         <v>11</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="26">
         <v>0</v>
       </c>
-      <c r="D10" s="26">
-        <v>0</v>
-      </c>
-      <c r="E10" s="40"/>
+      <c r="D10" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="34"/>
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="23.75" customHeight="1">
@@ -2312,13 +2341,13 @@
       <c r="B11" s="26">
         <v>10</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="26">
         <v>0</v>
       </c>
-      <c r="D11" s="26">
-        <v>0</v>
-      </c>
-      <c r="E11" s="40"/>
+      <c r="D11" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="34"/>
       <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="23.75" customHeight="1">
@@ -2328,13 +2357,13 @@
       <c r="B12" s="26">
         <v>4</v>
       </c>
-      <c r="C12" s="34">
-        <v>0</v>
-      </c>
-      <c r="D12" s="26">
+      <c r="C12" s="26">
         <v>20</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="D12" s="34">
+        <v>240</v>
+      </c>
+      <c r="E12" s="34"/>
       <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" ht="22.25" customHeight="1">
@@ -2344,13 +2373,13 @@
       <c r="B13" s="26">
         <v>0</v>
       </c>
-      <c r="C13" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="D13" s="26">
+      <c r="C13" s="26">
         <v>20</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="D13" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="34"/>
       <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" ht="22.25" customHeight="1">
@@ -2360,13 +2389,13 @@
       <c r="B14" s="26">
         <v>1</v>
       </c>
-      <c r="C14" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="D14" s="26">
+      <c r="C14" s="26">
         <v>20</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="D14" s="34">
+        <v>228.75</v>
+      </c>
+      <c r="E14" s="34"/>
       <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" ht="22.25" customHeight="1">
@@ -2376,13 +2405,13 @@
       <c r="B15" s="26">
         <v>11</v>
       </c>
-      <c r="C15" s="34">
-        <v>0</v>
-      </c>
-      <c r="D15" s="26">
+      <c r="C15" s="26">
         <v>20</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="D15" s="34">
+        <v>266.25</v>
+      </c>
+      <c r="E15" s="34"/>
       <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" ht="23.75" customHeight="1">
@@ -2392,13 +2421,13 @@
       <c r="B16" s="26">
         <v>10</v>
       </c>
-      <c r="C16" s="35">
-        <v>5</v>
-      </c>
-      <c r="D16" s="26">
+      <c r="C16" s="26">
         <v>20</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="D16" s="34">
+        <v>262.5</v>
+      </c>
+      <c r="E16" s="34"/>
       <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" ht="21.25" customHeight="1">
@@ -2408,13 +2437,13 @@
       <c r="B17" s="26">
         <v>4</v>
       </c>
-      <c r="C17" s="33">
-        <v>0.03</v>
-      </c>
-      <c r="D17" s="28">
+      <c r="C17" s="28">
         <v>44640</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="D17" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="34"/>
       <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1">
@@ -2424,13 +2453,13 @@
       <c r="B18" s="26">
         <v>0</v>
       </c>
-      <c r="C18" s="33">
-        <v>0.03</v>
-      </c>
-      <c r="D18" s="28">
+      <c r="C18" s="28">
         <v>44640</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="D18" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="34"/>
       <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1">
@@ -2440,13 +2469,13 @@
       <c r="B19" s="26">
         <v>1</v>
       </c>
-      <c r="C19" s="33">
-        <v>0.03</v>
-      </c>
-      <c r="D19" s="28">
+      <c r="C19" s="28">
         <v>44640</v>
       </c>
-      <c r="E19" s="40"/>
+      <c r="D19" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="34"/>
       <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="20" customHeight="1">
@@ -2456,13 +2485,13 @@
       <c r="B20" s="26">
         <v>11</v>
       </c>
-      <c r="C20" s="34">
-        <v>0</v>
-      </c>
-      <c r="D20" s="28">
+      <c r="C20" s="28">
         <v>44640</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="D20" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="34"/>
       <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" ht="20" customHeight="1">
@@ -2472,13 +2501,13 @@
       <c r="B21" s="26">
         <v>10</v>
       </c>
-      <c r="C21" s="34">
-        <v>0</v>
-      </c>
-      <c r="D21" s="28">
+      <c r="C21" s="28">
         <v>44640</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="D21" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="34"/>
       <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6" ht="20" customHeight="1">
@@ -2488,13 +2517,13 @@
       <c r="B22" s="26">
         <v>4</v>
       </c>
-      <c r="C22" s="33">
-        <v>0.03</v>
-      </c>
-      <c r="D22" s="28">
+      <c r="C22" s="28">
         <v>44000</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="D22" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="34"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="20" customHeight="1">
@@ -2504,13 +2533,13 @@
       <c r="B23" s="26">
         <v>0</v>
       </c>
-      <c r="C23" s="33">
-        <v>0.03</v>
-      </c>
-      <c r="D23" s="26">
+      <c r="C23" s="26">
         <v>44000</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="D23" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="34"/>
       <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" ht="20" customHeight="1">
@@ -2520,13 +2549,13 @@
       <c r="B24" s="26">
         <v>1</v>
       </c>
-      <c r="C24" s="33">
-        <v>0.03</v>
-      </c>
-      <c r="D24" s="28">
+      <c r="C24" s="28">
         <v>44000</v>
       </c>
-      <c r="E24" s="40"/>
+      <c r="D24" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="34"/>
       <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" ht="20" customHeight="1">
@@ -2536,13 +2565,13 @@
       <c r="B25" s="27">
         <v>11</v>
       </c>
-      <c r="C25" s="36">
-        <v>0</v>
-      </c>
-      <c r="D25" s="27">
+      <c r="C25" s="27">
         <v>44000</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="D25" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="34"/>
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" ht="20" customHeight="1">
@@ -2552,13 +2581,13 @@
       <c r="B26" s="27">
         <v>10</v>
       </c>
-      <c r="C26" s="36">
-        <v>0</v>
-      </c>
-      <c r="D26" s="30">
+      <c r="C26" s="30">
         <v>44000</v>
       </c>
-      <c r="E26" s="40"/>
+      <c r="D26" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="34"/>
       <c r="F26" s="30"/>
     </row>
   </sheetData>
@@ -2578,11 +2607,11 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="A1:E1"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2594,19 +2623,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>50</v>
-      </c>
       <c r="E1" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
@@ -2619,15 +2648,15 @@
       <c r="B2" s="8">
         <v>21</v>
       </c>
-      <c r="C2" s="31">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="39">
         <v>22</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="D2" s="36">
+        <v>423</v>
+      </c>
+      <c r="E2" s="36"/>
       <c r="F2" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="22.25" customHeight="1">
@@ -2637,15 +2666,15 @@
       <c r="B3" s="25">
         <v>19</v>
       </c>
-      <c r="C3" s="32">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="C3" s="40">
         <v>33</v>
       </c>
-      <c r="E3" s="46"/>
+      <c r="D3" s="37">
+        <v>500</v>
+      </c>
+      <c r="E3" s="37"/>
       <c r="F3" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="22.25" customHeight="1">
@@ -2655,15 +2684,15 @@
       <c r="B4" s="27">
         <v>12</v>
       </c>
-      <c r="C4" s="33">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D4" s="27">
+      <c r="C4" s="41">
         <v>12</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="D4" s="37">
+        <v>202.5</v>
+      </c>
+      <c r="E4" s="37"/>
       <c r="F4" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="22.25" customHeight="1">
@@ -2673,15 +2702,15 @@
       <c r="B5" s="26">
         <v>15</v>
       </c>
-      <c r="C5" s="34">
-        <v>0</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="C5" s="42">
         <v>29</v>
       </c>
-      <c r="E5" s="46"/>
+      <c r="D5" s="37">
+        <v>426</v>
+      </c>
+      <c r="E5" s="37"/>
       <c r="F5" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.25" customHeight="1">
@@ -2691,15 +2720,15 @@
       <c r="B6" s="26">
         <v>21</v>
       </c>
-      <c r="C6" s="34">
-        <v>0</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="C6" s="42">
         <v>23</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="D6" s="37">
+        <v>450</v>
+      </c>
+      <c r="E6" s="37"/>
       <c r="F6" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.25" customHeight="1">
@@ -2709,15 +2738,15 @@
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="43">
         <v>500000</v>
       </c>
-      <c r="E7" s="46"/>
+      <c r="D7" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="37"/>
       <c r="F7" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.25" customHeight="1">
@@ -2727,15 +2756,15 @@
       <c r="B8" s="11">
         <v>2</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C8" s="44">
         <v>500000</v>
       </c>
-      <c r="E8" s="46"/>
+      <c r="D8" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="37"/>
       <c r="F8" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
@@ -2745,15 +2774,15 @@
       <c r="B9" s="11">
         <v>3</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C9" s="44">
         <v>500000</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="D9" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="37"/>
       <c r="F9" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
@@ -2763,15 +2792,15 @@
       <c r="B10" s="11">
         <v>5</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="C10" s="44">
         <v>500000</v>
       </c>
-      <c r="E10" s="46"/>
+      <c r="D10" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="37"/>
       <c r="F10" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
@@ -2781,15 +2810,15 @@
       <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="C11" s="44">
         <v>500000</v>
       </c>
-      <c r="E11" s="46"/>
+      <c r="D11" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="37"/>
       <c r="F11" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
@@ -2799,15 +2828,15 @@
       <c r="B12" s="11">
         <v>-3</v>
       </c>
-      <c r="C12" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="C12" s="23">
         <v>20</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="D12" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="37"/>
       <c r="F12" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
@@ -2817,15 +2846,15 @@
       <c r="B13" s="11">
         <v>-3</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="C13" s="23">
         <v>80</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="D13" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="37"/>
       <c r="F13" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
@@ -2835,15 +2864,15 @@
       <c r="B14" s="11">
         <v>-3</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C14" s="23">
         <v>150</v>
       </c>
-      <c r="E14" s="46"/>
+      <c r="D14" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="37"/>
       <c r="F14" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
@@ -2853,15 +2882,15 @@
       <c r="B15" s="11">
         <v>-3</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C15" s="23">
         <v>200</v>
       </c>
-      <c r="E15" s="46"/>
+      <c r="D15" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="37"/>
       <c r="F15" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
@@ -2871,15 +2900,15 @@
       <c r="B16" s="11">
         <v>-3</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="C16" s="23">
         <v>500</v>
       </c>
-      <c r="E16" s="46"/>
+      <c r="D16" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="37"/>
       <c r="F16" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1">
@@ -2889,15 +2918,15 @@
       <c r="B17" s="11">
         <v>12</v>
       </c>
-      <c r="C17" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="C17" s="23">
         <v>20</v>
       </c>
-      <c r="E17" s="46"/>
+      <c r="D17" s="37">
+        <v>270</v>
+      </c>
+      <c r="E17" s="37"/>
       <c r="F17" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1">
@@ -2907,15 +2936,15 @@
       <c r="B18" s="11">
         <v>14</v>
       </c>
-      <c r="C18" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="C18" s="23">
         <v>80</v>
       </c>
-      <c r="E18" s="46"/>
+      <c r="D18" s="37">
+        <v>1270</v>
+      </c>
+      <c r="E18" s="37"/>
       <c r="F18" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1">
@@ -2925,15 +2954,15 @@
       <c r="B19" s="21">
         <v>15</v>
       </c>
-      <c r="C19" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="C19" s="23">
         <v>150</v>
       </c>
-      <c r="E19" s="46"/>
+      <c r="D19" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="37"/>
       <c r="F19" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20" customHeight="1">
@@ -2943,15 +2972,15 @@
       <c r="B20" s="11">
         <v>12</v>
       </c>
-      <c r="C20" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="C20" s="23">
         <v>200</v>
       </c>
-      <c r="E20" s="46"/>
+      <c r="D20" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="37"/>
       <c r="F20" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20" customHeight="1">
@@ -2961,15 +2990,15 @@
       <c r="B21" s="11">
         <v>12</v>
       </c>
-      <c r="C21" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="C21" s="23">
         <v>500</v>
       </c>
-      <c r="E21" s="46"/>
+      <c r="D21" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="37"/>
       <c r="F21" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20" customHeight="1">
@@ -2979,15 +3008,15 @@
       <c r="B22" s="11">
         <v>1</v>
       </c>
-      <c r="C22" s="43">
-        <v>0.01</v>
-      </c>
-      <c r="D22" s="22">
+      <c r="C22" s="23">
         <v>20</v>
       </c>
-      <c r="E22" s="46"/>
+      <c r="D22" s="37">
+        <v>228.75</v>
+      </c>
+      <c r="E22" s="37"/>
       <c r="F22" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20" customHeight="1">
@@ -2997,15 +3026,15 @@
       <c r="B23" s="11">
         <v>1</v>
       </c>
-      <c r="C23" s="43">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D23" s="23">
+      <c r="C23" s="23">
         <v>80</v>
       </c>
-      <c r="E23" s="46"/>
+      <c r="D23" s="37">
+        <v>1205</v>
+      </c>
+      <c r="E23" s="37"/>
       <c r="F23" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20" customHeight="1">
@@ -3015,15 +3044,15 @@
       <c r="B24" s="11">
         <v>1</v>
       </c>
-      <c r="C24" s="43">
-        <v>0.02</v>
-      </c>
-      <c r="D24" s="23">
+      <c r="C24" s="23">
         <v>150</v>
       </c>
-      <c r="E24" s="46"/>
+      <c r="D24" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="37"/>
       <c r="F24" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20" customHeight="1">
@@ -3033,15 +3062,15 @@
       <c r="B25" s="11">
         <v>1</v>
       </c>
-      <c r="C25" s="43">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D25" s="23">
+      <c r="C25" s="23">
         <v>200</v>
       </c>
-      <c r="E25" s="46"/>
+      <c r="D25" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="37"/>
       <c r="F25" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20" customHeight="1">
@@ -3051,15 +3080,15 @@
       <c r="B26" s="11">
         <v>1</v>
       </c>
-      <c r="C26" s="43">
-        <v>0.03</v>
-      </c>
-      <c r="D26" s="23">
+      <c r="C26" s="23">
         <v>500</v>
       </c>
-      <c r="E26" s="46"/>
+      <c r="D26" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="37"/>
       <c r="F26" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20" customHeight="1">
@@ -3069,15 +3098,15 @@
       <c r="B27" s="11">
         <v>2</v>
       </c>
-      <c r="C27" s="44">
-        <v>0</v>
-      </c>
-      <c r="D27" s="22">
+      <c r="C27" s="23">
         <v>20</v>
       </c>
-      <c r="E27" s="46"/>
+      <c r="D27" s="37">
+        <v>232.5</v>
+      </c>
+      <c r="E27" s="37"/>
       <c r="F27" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20" customHeight="1">
@@ -3087,15 +3116,15 @@
       <c r="B28" s="11">
         <v>2</v>
       </c>
-      <c r="C28" s="43">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D28" s="23">
+      <c r="C28" s="23">
         <v>80</v>
       </c>
-      <c r="E28" s="46"/>
+      <c r="D28" s="37">
+        <v>1210</v>
+      </c>
+      <c r="E28" s="37"/>
       <c r="F28" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20" customHeight="1">
@@ -3105,15 +3134,15 @@
       <c r="B29" s="11">
         <v>2</v>
       </c>
-      <c r="C29" s="43">
-        <v>0.02</v>
-      </c>
-      <c r="D29" s="23">
+      <c r="C29" s="23">
         <v>150</v>
       </c>
-      <c r="E29" s="46"/>
+      <c r="D29" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="37"/>
       <c r="F29" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20" customHeight="1">
@@ -3123,15 +3152,15 @@
       <c r="B30" s="11">
         <v>2</v>
       </c>
-      <c r="C30" s="43">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D30" s="23">
+      <c r="C30" s="23">
         <v>200</v>
       </c>
-      <c r="E30" s="46"/>
+      <c r="D30" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="37"/>
       <c r="F30" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20" customHeight="1">
@@ -3141,15 +3170,15 @@
       <c r="B31" s="11">
         <v>2</v>
       </c>
-      <c r="C31" s="43">
-        <v>0.03</v>
-      </c>
-      <c r="D31" s="23">
+      <c r="C31" s="23">
         <v>500</v>
       </c>
-      <c r="E31" s="46"/>
+      <c r="D31" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="37"/>
       <c r="F31" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20" customHeight="1">
@@ -3159,15 +3188,15 @@
       <c r="B32" s="11">
         <v>3</v>
       </c>
-      <c r="C32" s="44">
-        <v>0</v>
-      </c>
-      <c r="D32" s="22">
+      <c r="C32" s="23">
         <v>20</v>
       </c>
-      <c r="E32" s="46"/>
+      <c r="D32" s="37">
+        <v>236.25</v>
+      </c>
+      <c r="E32" s="37"/>
       <c r="F32" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20" customHeight="1">
@@ -3177,15 +3206,15 @@
       <c r="B33" s="11">
         <v>3</v>
       </c>
-      <c r="C33" s="44">
-        <v>0</v>
-      </c>
-      <c r="D33" s="23">
+      <c r="C33" s="23">
         <v>80</v>
       </c>
-      <c r="E33" s="46"/>
+      <c r="D33" s="37">
+        <v>1215</v>
+      </c>
+      <c r="E33" s="37"/>
       <c r="F33" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20" customHeight="1">
@@ -3195,15 +3224,15 @@
       <c r="B34" s="11">
         <v>3</v>
       </c>
-      <c r="C34" s="43">
-        <v>0.02</v>
-      </c>
-      <c r="D34" s="23">
+      <c r="C34" s="23">
         <v>150</v>
       </c>
-      <c r="E34" s="46"/>
+      <c r="D34" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="37"/>
       <c r="F34" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1">
@@ -3213,15 +3242,15 @@
       <c r="B35" s="11">
         <v>3</v>
       </c>
-      <c r="C35" s="43">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D35" s="23">
+      <c r="C35" s="23">
         <v>200</v>
       </c>
-      <c r="E35" s="46"/>
+      <c r="D35" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="37"/>
       <c r="F35" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20" customHeight="1">
@@ -3231,15 +3260,15 @@
       <c r="B36" s="11">
         <v>3</v>
       </c>
-      <c r="C36" s="43">
-        <v>0.03</v>
-      </c>
-      <c r="D36" s="23">
+      <c r="C36" s="23">
         <v>500</v>
       </c>
-      <c r="E36" s="46"/>
+      <c r="D36" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="37"/>
       <c r="F36" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="20" customHeight="1">
@@ -3249,15 +3278,15 @@
       <c r="B37" s="11">
         <v>4</v>
       </c>
-      <c r="C37" s="44">
-        <v>0</v>
-      </c>
-      <c r="D37" s="22">
+      <c r="C37" s="23">
         <v>20</v>
       </c>
-      <c r="E37" s="46"/>
+      <c r="D37" s="37">
+        <v>240</v>
+      </c>
+      <c r="E37" s="37"/>
       <c r="F37" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="20" customHeight="1">
@@ -3267,15 +3296,15 @@
       <c r="B38" s="11">
         <v>5</v>
       </c>
-      <c r="C38" s="44">
-        <v>0</v>
-      </c>
-      <c r="D38" s="23">
+      <c r="C38" s="23">
         <v>80</v>
       </c>
-      <c r="E38" s="46"/>
+      <c r="D38" s="37">
+        <v>1225</v>
+      </c>
+      <c r="E38" s="37"/>
       <c r="F38" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20" customHeight="1">
@@ -3285,15 +3314,15 @@
       <c r="B39" s="11">
         <v>6</v>
       </c>
-      <c r="C39" s="44">
-        <v>0</v>
-      </c>
-      <c r="D39" s="23">
+      <c r="C39" s="23">
         <v>150</v>
       </c>
-      <c r="E39" s="46"/>
+      <c r="D39" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="37"/>
       <c r="F39" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20" customHeight="1">
@@ -3303,15 +3332,15 @@
       <c r="B40" s="11">
         <v>5</v>
       </c>
-      <c r="C40" s="43">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D40" s="23">
+      <c r="C40" s="23">
         <v>200</v>
       </c>
-      <c r="E40" s="46"/>
+      <c r="D40" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="37"/>
       <c r="F40" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20" customHeight="1">
@@ -3321,15 +3350,15 @@
       <c r="B41" s="11">
         <v>6</v>
       </c>
-      <c r="C41" s="43">
-        <v>0.03</v>
-      </c>
-      <c r="D41" s="23">
+      <c r="C41" s="23">
         <v>500</v>
       </c>
-      <c r="E41" s="46"/>
+      <c r="D41" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="37"/>
       <c r="F41" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20" customHeight="1">
@@ -3339,15 +3368,15 @@
       <c r="B42" s="11">
         <v>7</v>
       </c>
-      <c r="C42" s="44">
-        <v>0</v>
-      </c>
-      <c r="D42" s="22">
+      <c r="C42" s="23">
         <v>20</v>
       </c>
-      <c r="E42" s="46"/>
+      <c r="D42" s="37">
+        <v>251.25</v>
+      </c>
+      <c r="E42" s="37"/>
       <c r="F42" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20" customHeight="1">
@@ -3357,15 +3386,15 @@
       <c r="B43" s="11">
         <v>8</v>
       </c>
-      <c r="C43" s="44">
-        <v>0</v>
-      </c>
-      <c r="D43" s="23">
+      <c r="C43" s="23">
         <v>80</v>
       </c>
-      <c r="E43" s="46"/>
+      <c r="D43" s="37">
+        <v>1240</v>
+      </c>
+      <c r="E43" s="37"/>
       <c r="F43" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20" customHeight="1">
@@ -3375,15 +3404,15 @@
       <c r="B44" s="11">
         <v>9</v>
       </c>
-      <c r="C44" s="44">
-        <v>0</v>
-      </c>
-      <c r="D44" s="23">
+      <c r="C44" s="23">
         <v>150</v>
       </c>
-      <c r="E44" s="46"/>
+      <c r="D44" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="37"/>
       <c r="F44" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20" customHeight="1">
@@ -3393,15 +3422,15 @@
       <c r="B45" s="11">
         <v>8</v>
       </c>
-      <c r="C45" s="44">
-        <v>0</v>
-      </c>
-      <c r="D45" s="23">
+      <c r="C45" s="23">
         <v>200</v>
       </c>
-      <c r="E45" s="46"/>
+      <c r="D45" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="37"/>
       <c r="F45" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -3411,15 +3440,15 @@
       <c r="B46" s="11">
         <v>9</v>
       </c>
-      <c r="C46" s="44">
-        <v>0</v>
-      </c>
-      <c r="D46" s="23">
+      <c r="C46" s="23">
         <v>500</v>
       </c>
-      <c r="E46" s="46"/>
+      <c r="D46" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="37"/>
       <c r="F46" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testing/excel/hw3.xlsx
+++ b/src/main/java/testing/excel/hw3.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freddyhe/Desktop/软测/soltware_testing-master/src/main/java/testing/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\软件测试\soltware_testing-master\src\main\java\testing\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B749F197-D7DC-FB43-B61B-5BCCAA8FA6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCCC692-5629-4082-9C96-A7983315C9E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="500" windowWidth="21020" windowHeight="16020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7536" yWindow="504" windowWidth="21024" windowHeight="16020" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
     <sheet name="工作表 1 - 题目一_一般边界值法" sheetId="2" r:id="rId2"/>
     <sheet name="工作表 2 - 题目一_弱健壮等价类法" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Numbers 工作表名称</t>
   </si>
@@ -203,102 +203,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>x2 y1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3 y1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4 y2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5 y2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4 y1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5 y1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1 y2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2 y2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3 y2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1 y3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2 y3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3 y3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4 y3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5 y3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1 y4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2 y4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3 y4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5 y4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4 y4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1 y5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2 y5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3 y5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4 y5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5 y5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>题目</t>
     </r>
@@ -354,12 +258,16 @@
   <si>
     <t>peripherals</t>
   </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -454,6 +362,13 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -487,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -600,19 +515,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="13"/>
       </left>
       <right style="thin">
@@ -702,80 +604,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA5A5A5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA5A5A5"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA5A5A5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA5A5A5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA5A5A5"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -839,28 +674,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -872,43 +701,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2080,26 +1894,26 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="44.33203125" customWidth="1"/>
     <col min="3" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="50" customHeight="1">
-      <c r="B3" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-    </row>
-    <row r="4" spans="2:4" ht="65" customHeight="1">
+    <row r="3" spans="2:4" ht="49.95" customHeight="1">
+      <c r="B3" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+    </row>
+    <row r="4" spans="2:4" ht="64.95" customHeight="1">
       <c r="B4" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="19">
+    <row r="7" spans="2:4" ht="17.399999999999999">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2110,14 +1924,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="17">
+    <row r="9" spans="2:4" ht="15">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" ht="17">
+    <row r="10" spans="2:4" ht="15">
       <c r="B10" s="3"/>
       <c r="C10" s="14" t="s">
         <v>6</v>
@@ -2126,14 +1940,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="17">
+    <row r="11" spans="2:4" ht="15">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:4" ht="17">
+    <row r="12" spans="2:4" ht="15">
       <c r="B12" s="3"/>
       <c r="C12" s="14" t="s">
         <v>8</v>
@@ -2163,10 +1977,10 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E1:E26"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="16.33203125" style="4" customWidth="1"/>
     <col min="8" max="16384" width="16.33203125" style="4"/>
@@ -2174,421 +1988,362 @@
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1">
       <c r="A2" s="7">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B2" s="8">
-        <v>21</v>
-      </c>
-      <c r="C2" s="7">
-        <v>22</v>
-      </c>
-      <c r="D2" s="31">
-        <v>423</v>
-      </c>
-      <c r="E2" s="31"/>
+        <v>50</v>
+      </c>
+      <c r="C2" s="8">
+        <v>50</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="28"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A3" s="24">
-        <v>18</v>
-      </c>
-      <c r="B3" s="25">
-        <v>19</v>
-      </c>
-      <c r="C3" s="24">
-        <v>33</v>
-      </c>
-      <c r="D3" s="32">
-        <v>500</v>
-      </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A4" s="27">
-        <v>17</v>
-      </c>
-      <c r="B4" s="27">
-        <v>12</v>
-      </c>
-      <c r="C4" s="27">
-        <v>12</v>
-      </c>
-      <c r="D4" s="33">
-        <v>202.5</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="30"/>
-    </row>
-    <row r="5" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A5" s="26">
-        <v>15</v>
-      </c>
-      <c r="B5" s="26">
-        <v>15</v>
-      </c>
-      <c r="C5" s="26">
-        <v>29</v>
-      </c>
-      <c r="D5" s="34">
-        <v>426</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="30"/>
-    </row>
-    <row r="6" spans="1:6" ht="23.75" customHeight="1">
-      <c r="A6" s="26">
-        <v>3</v>
-      </c>
-      <c r="B6" s="26">
-        <v>4</v>
-      </c>
-      <c r="C6" s="26">
+    <row r="3" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>40</v>
+      </c>
+      <c r="C3" s="11">
+        <v>45</v>
+      </c>
+      <c r="D3" s="11">
+        <f>(A3*30+B3*25+C3*45)*0.2</f>
+        <v>611</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A4" s="10">
         <v>5</v>
       </c>
-      <c r="D6" s="34">
-        <v>41.5</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="1:6" ht="23.75" customHeight="1">
-      <c r="A7" s="26">
-        <v>0</v>
-      </c>
-      <c r="B7" s="26">
-        <v>4</v>
-      </c>
-      <c r="C7" s="26">
-        <v>0</v>
-      </c>
-      <c r="D7" s="34">
+      <c r="B4" s="11">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11">
+        <v>45</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" ref="D4:D17" si="0">(A4*30+B4*25+C4*45)*0.2</f>
+        <v>635</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A5" s="10">
+        <v>35</v>
+      </c>
+      <c r="B5" s="11">
+        <v>40</v>
+      </c>
+      <c r="C5" s="11">
+        <v>45</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>815</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="1:6" ht="23.7" customHeight="1">
+      <c r="A6" s="10">
+        <v>65</v>
+      </c>
+      <c r="B6" s="11">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11">
+        <v>45</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>995</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6" ht="23.7" customHeight="1">
+      <c r="A7" s="10">
+        <v>70</v>
+      </c>
+      <c r="B7" s="11">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11">
+        <v>45</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>1025</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A8" s="10">
+        <v>35</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>45</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A9" s="10">
+        <v>35</v>
+      </c>
+      <c r="B9" s="11">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>45</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A10" s="10">
+        <v>35</v>
+      </c>
+      <c r="B10" s="11">
+        <v>40</v>
+      </c>
+      <c r="C10" s="11">
+        <v>45</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>815</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:6" ht="23.7" customHeight="1">
+      <c r="A11" s="10">
+        <v>35</v>
+      </c>
+      <c r="B11" s="11">
+        <v>75</v>
+      </c>
+      <c r="C11" s="11">
+        <v>45</v>
+      </c>
+      <c r="D11" s="11">
         <v>-1</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="30"/>
-    </row>
-    <row r="8" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A8" s="26">
-        <v>0</v>
-      </c>
-      <c r="B8" s="26">
-        <v>0</v>
-      </c>
-      <c r="C8" s="26">
-        <v>0</v>
-      </c>
-      <c r="D8" s="34">
+      <c r="E11" s="31"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="1:6" ht="23.7" customHeight="1">
+      <c r="A12" s="10">
+        <v>35</v>
+      </c>
+      <c r="B12" s="11">
+        <v>80</v>
+      </c>
+      <c r="C12" s="11">
+        <v>45</v>
+      </c>
+      <c r="D12" s="11">
         <v>-1</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A9" s="26">
-        <v>0</v>
-      </c>
-      <c r="B9" s="26">
+      <c r="E12" s="31"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A13" s="10">
+        <v>35</v>
+      </c>
+      <c r="B13" s="11">
+        <v>40</v>
+      </c>
+      <c r="C13" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="26">
-        <v>0</v>
-      </c>
-      <c r="D9" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A10" s="26">
-        <v>0</v>
-      </c>
-      <c r="B10" s="26">
-        <v>11</v>
-      </c>
-      <c r="C10" s="26">
-        <v>0</v>
-      </c>
-      <c r="D10" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:6" ht="23.75" customHeight="1">
-      <c r="A11" s="26">
-        <v>0</v>
-      </c>
-      <c r="B11" s="26">
-        <v>10</v>
-      </c>
-      <c r="C11" s="26">
-        <v>0</v>
-      </c>
-      <c r="D11" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" spans="1:6" ht="23.75" customHeight="1">
-      <c r="A12" s="26">
-        <v>20</v>
-      </c>
-      <c r="B12" s="26">
-        <v>4</v>
-      </c>
-      <c r="C12" s="26">
-        <v>20</v>
-      </c>
-      <c r="D12" s="34">
-        <v>240</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A13" s="26">
-        <v>20</v>
-      </c>
-      <c r="B13" s="26">
-        <v>0</v>
-      </c>
-      <c r="C13" s="26">
-        <v>20</v>
-      </c>
-      <c r="D13" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A14" s="26">
-        <v>20</v>
-      </c>
-      <c r="B14" s="26">
-        <v>1</v>
-      </c>
-      <c r="C14" s="26">
-        <v>20</v>
-      </c>
-      <c r="D14" s="34">
-        <v>228.75</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A15" s="26">
-        <v>20</v>
-      </c>
-      <c r="B15" s="26">
-        <v>11</v>
-      </c>
-      <c r="C15" s="26">
-        <v>20</v>
-      </c>
-      <c r="D15" s="34">
-        <v>266.25</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:6" ht="23.75" customHeight="1">
-      <c r="A16" s="26">
-        <v>20</v>
-      </c>
-      <c r="B16" s="26">
-        <v>10</v>
-      </c>
-      <c r="C16" s="26">
-        <v>20</v>
-      </c>
-      <c r="D16" s="34">
-        <v>262.5</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="1:6" ht="21.25" customHeight="1">
-      <c r="A17" s="28">
-        <v>44640</v>
-      </c>
-      <c r="B17" s="26">
-        <v>4</v>
-      </c>
-      <c r="C17" s="28">
-        <v>44640</v>
-      </c>
-      <c r="D17" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
-      <c r="A18" s="28">
-        <v>44640</v>
-      </c>
-      <c r="B18" s="26">
-        <v>0</v>
-      </c>
-      <c r="C18" s="28">
-        <v>44640</v>
-      </c>
-      <c r="D18" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
-      <c r="A19" s="28">
-        <v>44640</v>
-      </c>
-      <c r="B19" s="26">
-        <v>1</v>
-      </c>
-      <c r="C19" s="28">
-        <v>44640</v>
-      </c>
-      <c r="D19" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
-      <c r="A20" s="28">
-        <v>44640</v>
-      </c>
-      <c r="B20" s="26">
-        <v>11</v>
-      </c>
-      <c r="C20" s="28">
-        <v>44640</v>
-      </c>
-      <c r="D20" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
-      <c r="A21" s="28">
-        <v>44640</v>
-      </c>
-      <c r="B21" s="26">
-        <v>10</v>
-      </c>
-      <c r="C21" s="28">
-        <v>44640</v>
-      </c>
-      <c r="D21" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
-      <c r="A22" s="28">
-        <v>44000</v>
-      </c>
-      <c r="B22" s="26">
-        <v>4</v>
-      </c>
-      <c r="C22" s="28">
-        <v>44000</v>
-      </c>
-      <c r="D22" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
-      <c r="A23" s="26">
-        <v>44000</v>
-      </c>
-      <c r="B23" s="26">
-        <v>0</v>
-      </c>
-      <c r="C23" s="26">
-        <v>44000</v>
-      </c>
-      <c r="D23" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1">
-      <c r="A24" s="28">
-        <v>44000</v>
-      </c>
-      <c r="B24" s="26">
-        <v>1</v>
-      </c>
-      <c r="C24" s="28">
-        <v>44000</v>
-      </c>
-      <c r="D24" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1">
-      <c r="A25" s="27">
-        <v>44000</v>
-      </c>
-      <c r="B25" s="27">
-        <v>11</v>
-      </c>
-      <c r="C25" s="27">
-        <v>44000</v>
-      </c>
-      <c r="D25" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
-      <c r="A26" s="30">
-        <v>44000</v>
-      </c>
-      <c r="B26" s="27">
-        <v>10</v>
-      </c>
-      <c r="C26" s="30">
-        <v>44000</v>
-      </c>
-      <c r="D26" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="30"/>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>419</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A14" s="10">
+        <v>35</v>
+      </c>
+      <c r="B14" s="11">
+        <v>40</v>
+      </c>
+      <c r="C14" s="11">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A15" s="10">
+        <v>35</v>
+      </c>
+      <c r="B15" s="11">
+        <v>40</v>
+      </c>
+      <c r="C15" s="11">
+        <v>45</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>815</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" ht="23.7" customHeight="1">
+      <c r="A16" s="10">
+        <v>35</v>
+      </c>
+      <c r="B16" s="11">
+        <v>40</v>
+      </c>
+      <c r="C16" s="11">
+        <v>75</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>1085</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" ht="21.3" customHeight="1">
+      <c r="A17" s="10">
+        <v>35</v>
+      </c>
+      <c r="B17" s="11">
+        <v>40</v>
+      </c>
+      <c r="C17" s="11">
+        <v>80</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>1130</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A22" s="25"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A24" s="25"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="27"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A26" s="27"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2608,13 +2363,13 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="16.33203125" style="13" customWidth="1"/>
     <col min="4" max="6" width="16.33203125" style="13"/>
@@ -2623,19 +2378,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
@@ -2643,818 +2398,591 @@
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1">
       <c r="A2" s="7">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="B2" s="8">
-        <v>21</v>
-      </c>
-      <c r="C2" s="39">
-        <v>22</v>
-      </c>
-      <c r="D2" s="36">
-        <v>423</v>
-      </c>
-      <c r="E2" s="36"/>
+        <v>50</v>
+      </c>
+      <c r="C2" s="8">
+        <v>50</v>
+      </c>
+      <c r="D2" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="33"/>
       <c r="F2" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A3" s="24">
-        <v>18</v>
-      </c>
-      <c r="B3" s="25">
-        <v>19</v>
-      </c>
-      <c r="C3" s="40">
-        <v>33</v>
-      </c>
-      <c r="D3" s="37">
-        <v>500</v>
-      </c>
-      <c r="E3" s="37"/>
+    <row r="3" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>40</v>
+      </c>
+      <c r="C3" s="11">
+        <v>45</v>
+      </c>
+      <c r="D3" s="11">
+        <f>(A3*30+B3*25+C3*45)*0.2</f>
+        <v>611</v>
+      </c>
+      <c r="E3" s="34"/>
       <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A4" s="27">
-        <v>17</v>
-      </c>
-      <c r="B4" s="27">
-        <v>12</v>
-      </c>
-      <c r="C4" s="41">
-        <v>12</v>
-      </c>
-      <c r="D4" s="37">
-        <v>202.5</v>
-      </c>
-      <c r="E4" s="37"/>
+    <row r="4" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A4" s="10">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11">
+        <v>45</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" ref="D4:D7" si="0">(A4*30+B4*25+C4*45)*0.2</f>
+        <v>635</v>
+      </c>
+      <c r="E4" s="34"/>
       <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A5" s="26">
-        <v>15</v>
-      </c>
-      <c r="B5" s="26">
-        <v>15</v>
-      </c>
-      <c r="C5" s="42">
-        <v>29</v>
-      </c>
-      <c r="D5" s="37">
-        <v>426</v>
-      </c>
-      <c r="E5" s="37"/>
+    <row r="5" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A5" s="10">
+        <v>35</v>
+      </c>
+      <c r="B5" s="11">
+        <v>40</v>
+      </c>
+      <c r="C5" s="11">
+        <v>45</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>815</v>
+      </c>
+      <c r="E5" s="34"/>
       <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A6" s="26">
-        <v>23</v>
-      </c>
-      <c r="B6" s="26">
-        <v>21</v>
-      </c>
-      <c r="C6" s="42">
-        <v>23</v>
-      </c>
-      <c r="D6" s="37">
-        <v>450</v>
-      </c>
-      <c r="E6" s="37"/>
+    <row r="6" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A6" s="10">
+        <v>65</v>
+      </c>
+      <c r="B6" s="11">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11">
+        <v>45</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>995</v>
+      </c>
+      <c r="E6" s="34"/>
       <c r="F6" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="22.25" customHeight="1">
+    <row r="7" spans="1:6" ht="22.2" customHeight="1">
       <c r="A7" s="10">
-        <v>500000</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="43">
-        <v>500000</v>
-      </c>
-      <c r="D7" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="37"/>
+        <v>70</v>
+      </c>
+      <c r="B7" s="11">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11">
+        <v>45</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>1025</v>
+      </c>
+      <c r="E7" s="34"/>
       <c r="F7" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="22.25" customHeight="1">
-      <c r="A8" s="10">
-        <v>500000</v>
-      </c>
-      <c r="B8" s="11">
-        <v>2</v>
-      </c>
-      <c r="C8" s="44">
-        <v>500000</v>
-      </c>
-      <c r="D8" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="37"/>
+    <row r="8" spans="1:6" ht="22.2" customHeight="1">
+      <c r="A8" s="36">
+        <v>72</v>
+      </c>
+      <c r="B8" s="36">
+        <v>40</v>
+      </c>
+      <c r="C8" s="36">
+        <v>45</v>
+      </c>
+      <c r="D8" s="36">
+        <v>1037</v>
+      </c>
+      <c r="E8" s="34"/>
       <c r="F8" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
-      <c r="A9" s="10">
-        <v>500000</v>
-      </c>
-      <c r="B9" s="11">
-        <v>3</v>
-      </c>
-      <c r="C9" s="44">
-        <v>500000</v>
-      </c>
-      <c r="D9" s="37">
+    <row r="9" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A9" s="36">
+        <v>35</v>
+      </c>
+      <c r="B9" s="36">
         <v>-1</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="C9" s="36">
+        <v>45</v>
+      </c>
+      <c r="D9" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="34"/>
       <c r="F9" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+    <row r="10" spans="1:6" ht="19.95" customHeight="1">
       <c r="A10" s="10">
-        <v>500000</v>
+        <v>35</v>
       </c>
       <c r="B10" s="11">
-        <v>5</v>
-      </c>
-      <c r="C10" s="44">
-        <v>500000</v>
-      </c>
-      <c r="D10" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="37"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>45</v>
+      </c>
+      <c r="D10" s="11">
+        <f>(A10*30+B10*25+C10*45)*0.2</f>
+        <v>620</v>
+      </c>
+      <c r="E10" s="34"/>
       <c r="F10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+    <row r="11" spans="1:6" ht="19.95" customHeight="1">
       <c r="A11" s="10">
-        <v>500000</v>
+        <v>35</v>
       </c>
       <c r="B11" s="11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="44">
-        <v>500000</v>
-      </c>
-      <c r="D11" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="37"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
+        <v>45</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" ref="D11:D14" si="1">(A11*30+B11*25+C11*45)*0.2</f>
+        <v>640</v>
+      </c>
+      <c r="E11" s="34"/>
       <c r="F11" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
-      <c r="A12" s="11">
-        <v>20</v>
+    <row r="12" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A12" s="10">
+        <v>35</v>
       </c>
       <c r="B12" s="11">
-        <v>-3</v>
-      </c>
-      <c r="C12" s="23">
-        <v>20</v>
-      </c>
-      <c r="D12" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="37"/>
+        <v>40</v>
+      </c>
+      <c r="C12" s="11">
+        <v>45</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="1"/>
+        <v>815</v>
+      </c>
+      <c r="E12" s="34"/>
       <c r="F12" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
-      <c r="A13" s="11">
-        <v>80</v>
+    <row r="13" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A13" s="10">
+        <v>35</v>
       </c>
       <c r="B13" s="11">
-        <v>-3</v>
-      </c>
-      <c r="C13" s="23">
-        <v>80</v>
-      </c>
-      <c r="D13" s="37">
+        <v>75</v>
+      </c>
+      <c r="C13" s="11">
+        <v>45</v>
+      </c>
+      <c r="D13" s="11">
         <v>-1</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
-      <c r="A14" s="11">
-        <v>150</v>
+    <row r="14" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A14" s="10">
+        <v>35</v>
       </c>
       <c r="B14" s="11">
-        <v>-3</v>
-      </c>
-      <c r="C14" s="23">
-        <v>150</v>
-      </c>
-      <c r="D14" s="37">
+        <v>80</v>
+      </c>
+      <c r="C14" s="11">
+        <v>45</v>
+      </c>
+      <c r="D14" s="11">
         <v>-1</v>
       </c>
-      <c r="E14" s="37"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
-      <c r="A15" s="11">
-        <v>200</v>
-      </c>
-      <c r="B15" s="11">
-        <v>-3</v>
-      </c>
-      <c r="C15" s="23">
-        <v>200</v>
-      </c>
-      <c r="D15" s="37">
+    <row r="15" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A15" s="36">
+        <v>35</v>
+      </c>
+      <c r="B15" s="36">
+        <v>82</v>
+      </c>
+      <c r="C15" s="36">
+        <v>45</v>
+      </c>
+      <c r="D15" s="36">
         <v>-1</v>
       </c>
-      <c r="E15" s="37"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
-      <c r="A16" s="11">
-        <v>500</v>
-      </c>
-      <c r="B16" s="11">
-        <v>-3</v>
-      </c>
-      <c r="C16" s="23">
-        <v>500</v>
-      </c>
-      <c r="D16" s="37">
+    <row r="16" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A16" s="36">
+        <v>25</v>
+      </c>
+      <c r="B16" s="36">
+        <v>40</v>
+      </c>
+      <c r="C16" s="36">
         <v>-1</v>
       </c>
-      <c r="E16" s="37"/>
+      <c r="D16" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="34"/>
       <c r="F16" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
-      <c r="A17" s="11">
-        <v>20</v>
+    <row r="17" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A17" s="10">
+        <v>35</v>
       </c>
       <c r="B17" s="11">
-        <v>12</v>
-      </c>
-      <c r="C17" s="23">
-        <v>20</v>
-      </c>
-      <c r="D17" s="37">
-        <v>270</v>
-      </c>
-      <c r="E17" s="37"/>
+        <v>40</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <f>(A17*30+B17*25+C17*45)*0.2</f>
+        <v>419</v>
+      </c>
+      <c r="E17" s="34"/>
       <c r="F17" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
-      <c r="A18" s="11">
-        <v>80</v>
+    <row r="18" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A18" s="10">
+        <v>35</v>
       </c>
       <c r="B18" s="11">
-        <v>14</v>
-      </c>
-      <c r="C18" s="23">
-        <v>80</v>
-      </c>
-      <c r="D18" s="37">
-        <v>1270</v>
-      </c>
-      <c r="E18" s="37"/>
+        <v>40</v>
+      </c>
+      <c r="C18" s="11">
+        <v>5</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" ref="D18:D21" si="2">(A18*30+B18*25+C18*45)*0.2</f>
+        <v>455</v>
+      </c>
+      <c r="E18" s="34"/>
       <c r="F18" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
-      <c r="A19" s="11">
-        <v>150</v>
-      </c>
-      <c r="B19" s="21">
-        <v>15</v>
-      </c>
-      <c r="C19" s="23">
-        <v>150</v>
-      </c>
-      <c r="D19" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E19" s="37"/>
+    <row r="19" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A19" s="10">
+        <v>35</v>
+      </c>
+      <c r="B19" s="11">
+        <v>40</v>
+      </c>
+      <c r="C19" s="11">
+        <v>45</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="2"/>
+        <v>815</v>
+      </c>
+      <c r="E19" s="34"/>
       <c r="F19" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
-      <c r="A20" s="11">
-        <v>200</v>
+    <row r="20" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A20" s="10">
+        <v>35</v>
       </c>
       <c r="B20" s="11">
-        <v>12</v>
-      </c>
-      <c r="C20" s="23">
-        <v>200</v>
-      </c>
-      <c r="D20" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E20" s="37"/>
+        <v>40</v>
+      </c>
+      <c r="C20" s="11">
+        <v>75</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="2"/>
+        <v>1085</v>
+      </c>
+      <c r="E20" s="34"/>
       <c r="F20" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
-      <c r="A21" s="11">
-        <v>500</v>
+    <row r="21" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A21" s="10">
+        <v>35</v>
       </c>
       <c r="B21" s="11">
-        <v>12</v>
-      </c>
-      <c r="C21" s="23">
-        <v>500</v>
-      </c>
-      <c r="D21" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="37"/>
+        <v>40</v>
+      </c>
+      <c r="C21" s="11">
+        <v>80</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="2"/>
+        <v>1130</v>
+      </c>
+      <c r="E21" s="34"/>
       <c r="F21" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
-      <c r="A22" s="22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="11">
-        <v>1</v>
-      </c>
-      <c r="C22" s="23">
-        <v>20</v>
-      </c>
-      <c r="D22" s="37">
-        <v>228.75</v>
-      </c>
-      <c r="E22" s="37"/>
+    <row r="22" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A22" s="36">
+        <v>35</v>
+      </c>
+      <c r="B22" s="36">
+        <v>40</v>
+      </c>
+      <c r="C22" s="36">
+        <v>82</v>
+      </c>
+      <c r="D22" s="36">
+        <v>1148</v>
+      </c>
+      <c r="E22" s="34"/>
       <c r="F22" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
-      <c r="A23" s="23">
-        <v>80</v>
-      </c>
-      <c r="B23" s="11">
-        <v>1</v>
-      </c>
-      <c r="C23" s="23">
-        <v>80</v>
-      </c>
-      <c r="D23" s="37">
-        <v>1205</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1">
-      <c r="A24" s="23">
-        <v>150</v>
-      </c>
-      <c r="B24" s="11">
-        <v>1</v>
-      </c>
-      <c r="C24" s="23">
-        <v>150</v>
-      </c>
-      <c r="D24" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1">
-      <c r="A25" s="23">
-        <v>200</v>
-      </c>
-      <c r="B25" s="11">
-        <v>1</v>
-      </c>
-      <c r="C25" s="23">
-        <v>200</v>
-      </c>
-      <c r="D25" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
-      <c r="A26" s="23">
-        <v>500</v>
-      </c>
-      <c r="B26" s="11">
-        <v>1</v>
-      </c>
-      <c r="C26" s="23">
-        <v>500</v>
-      </c>
-      <c r="D26" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1">
-      <c r="A27" s="22">
-        <v>20</v>
-      </c>
-      <c r="B27" s="11">
-        <v>2</v>
-      </c>
-      <c r="C27" s="23">
-        <v>20</v>
-      </c>
-      <c r="D27" s="37">
-        <v>232.5</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1">
-      <c r="A28" s="23">
-        <v>80</v>
-      </c>
-      <c r="B28" s="11">
-        <v>2</v>
-      </c>
-      <c r="C28" s="23">
-        <v>80</v>
-      </c>
-      <c r="D28" s="37">
-        <v>1210</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1">
-      <c r="A29" s="23">
-        <v>150</v>
-      </c>
-      <c r="B29" s="11">
-        <v>2</v>
-      </c>
-      <c r="C29" s="23">
-        <v>150</v>
-      </c>
-      <c r="D29" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1">
-      <c r="A30" s="23">
-        <v>200</v>
-      </c>
-      <c r="B30" s="11">
-        <v>2</v>
-      </c>
-      <c r="C30" s="23">
-        <v>200</v>
-      </c>
-      <c r="D30" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20" customHeight="1">
-      <c r="A31" s="23">
-        <v>500</v>
-      </c>
-      <c r="B31" s="11">
-        <v>2</v>
-      </c>
-      <c r="C31" s="23">
-        <v>500</v>
-      </c>
-      <c r="D31" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20" customHeight="1">
-      <c r="A32" s="22">
-        <v>20</v>
-      </c>
-      <c r="B32" s="11">
-        <v>3</v>
-      </c>
-      <c r="C32" s="23">
-        <v>20</v>
-      </c>
-      <c r="D32" s="37">
-        <v>236.25</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1">
-      <c r="A33" s="23">
-        <v>80</v>
-      </c>
-      <c r="B33" s="11">
-        <v>3</v>
-      </c>
-      <c r="C33" s="23">
-        <v>80</v>
-      </c>
-      <c r="D33" s="37">
-        <v>1215</v>
-      </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1">
-      <c r="A34" s="23">
-        <v>150</v>
-      </c>
-      <c r="B34" s="11">
-        <v>3</v>
-      </c>
-      <c r="C34" s="23">
-        <v>150</v>
-      </c>
-      <c r="D34" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1">
-      <c r="A35" s="23">
-        <v>200</v>
-      </c>
-      <c r="B35" s="11">
-        <v>3</v>
-      </c>
-      <c r="C35" s="23">
-        <v>200</v>
-      </c>
-      <c r="D35" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1">
-      <c r="A36" s="23">
-        <v>500</v>
-      </c>
-      <c r="B36" s="11">
-        <v>3</v>
-      </c>
-      <c r="C36" s="23">
-        <v>500</v>
-      </c>
-      <c r="D36" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1">
-      <c r="A37" s="22">
-        <v>20</v>
-      </c>
-      <c r="B37" s="11">
-        <v>4</v>
-      </c>
-      <c r="C37" s="23">
-        <v>20</v>
-      </c>
-      <c r="D37" s="37">
-        <v>240</v>
-      </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1">
-      <c r="A38" s="23">
-        <v>80</v>
-      </c>
-      <c r="B38" s="11">
-        <v>5</v>
-      </c>
-      <c r="C38" s="23">
-        <v>80</v>
-      </c>
-      <c r="D38" s="37">
-        <v>1225</v>
-      </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1">
-      <c r="A39" s="23">
-        <v>150</v>
-      </c>
-      <c r="B39" s="11">
-        <v>6</v>
-      </c>
-      <c r="C39" s="23">
-        <v>150</v>
-      </c>
-      <c r="D39" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1">
-      <c r="A40" s="23">
-        <v>200</v>
-      </c>
-      <c r="B40" s="11">
-        <v>5</v>
-      </c>
-      <c r="C40" s="23">
-        <v>200</v>
-      </c>
-      <c r="D40" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1">
-      <c r="A41" s="23">
-        <v>500</v>
-      </c>
-      <c r="B41" s="11">
-        <v>6</v>
-      </c>
-      <c r="C41" s="23">
-        <v>500</v>
-      </c>
-      <c r="D41" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20" customHeight="1">
-      <c r="A42" s="22">
-        <v>20</v>
-      </c>
-      <c r="B42" s="11">
-        <v>7</v>
-      </c>
-      <c r="C42" s="23">
-        <v>20</v>
-      </c>
-      <c r="D42" s="37">
-        <v>251.25</v>
-      </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="20" customHeight="1">
-      <c r="A43" s="23">
-        <v>80</v>
-      </c>
-      <c r="B43" s="11">
-        <v>8</v>
-      </c>
-      <c r="C43" s="23">
-        <v>80</v>
-      </c>
-      <c r="D43" s="37">
-        <v>1240</v>
-      </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="20" customHeight="1">
-      <c r="A44" s="23">
-        <v>150</v>
-      </c>
-      <c r="B44" s="11">
-        <v>9</v>
-      </c>
-      <c r="C44" s="23">
-        <v>150</v>
-      </c>
-      <c r="D44" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="20" customHeight="1">
-      <c r="A45" s="23">
-        <v>200</v>
-      </c>
-      <c r="B45" s="11">
-        <v>8</v>
-      </c>
-      <c r="C45" s="23">
-        <v>200</v>
-      </c>
-      <c r="D45" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="20" customHeight="1">
-      <c r="A46" s="23">
-        <v>500</v>
-      </c>
-      <c r="B46" s="11">
-        <v>9</v>
-      </c>
-      <c r="C46" s="23">
-        <v>500</v>
-      </c>
-      <c r="D46" s="37">
-        <v>-1</v>
-      </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="20" t="s">
-        <v>43</v>
-      </c>
+    <row r="23" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A23" s="22"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A24" s="22"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A25" s="22"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A30" s="22"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A32" s="21"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A34" s="22"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A36" s="22"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A37" s="21"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A38" s="22"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A39" s="22"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A40" s="22"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A41" s="22"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A42" s="21"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A43" s="22"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="20"/>
+    </row>
+    <row r="44" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A44" s="22"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A45" s="22"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="20"/>
+    </row>
+    <row r="46" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A46" s="22"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
